--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1862.xlsx
@@ -357,7 +357,7 @@
         <v>1.590790943890526</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>2.30356708623406</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1862.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2087320472028874</v>
+        <v>1.553958773612976</v>
       </c>
       <c r="B1">
-        <v>0.3463783643661147</v>
+        <v>2.737058401107788</v>
       </c>
       <c r="C1">
-        <v>1.590790943890526</v>
+        <v>3.142816305160522</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.933822393417358</v>
       </c>
       <c r="E1">
-        <v>2.30356708623406</v>
+        <v>2.761942863464355</v>
       </c>
     </row>
   </sheetData>
